--- a/exp_1/txOriginUse.xlsx
+++ b/exp_1/txOriginUse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\exp_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0657C4-A395-4479-B609-6A4264C92DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C08C74-E6E2-4CF4-9AD9-98896CF27F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16344" yWindow="3648" windowWidth="12144" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,198 +20,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>contract address</t>
   </si>
   <si>
-    <t>0x074cb6129ca2d9c1aea322681e01bc047fd3f1a6</t>
-  </si>
-  <si>
-    <t>0x0788d90e614d64de700f62bd54a1e6006c425bc4</t>
-  </si>
-  <si>
-    <t>0x0a7f20c58c3014e1dfb7f9d460d8bc2202f7bf1f</t>
-  </si>
-  <si>
-    <t>0x12863901098aa24fa81f1ab952a449f6c8211afc</t>
-  </si>
-  <si>
-    <t>0x1611ead58474528582420b089e9b3b55bc9af3c1</t>
-  </si>
-  <si>
-    <t>0x16dfa86c1f3ae293fa01915718df563b26952408</t>
-  </si>
-  <si>
-    <t>0x1ab601a2e158fbfd44b314e3a9dae742332c7f48</t>
-  </si>
-  <si>
-    <t>0x2119a3314c1d40704d816392a9e44da463688992</t>
-  </si>
-  <si>
-    <t>0x24c629d4913681b82ae7f9b30befd80e5229c36e</t>
-  </si>
-  <si>
-    <t>0x26e75307fc0c021472feb8f727839531f112f317</t>
-  </si>
-  <si>
-    <t>0x2742a7d469e34e277d6c306b2cb14a361c1ba254</t>
-  </si>
-  <si>
-    <t>0x28b6bf339afd2dceeeebd6b218e798b08f38a2e9</t>
-  </si>
-  <si>
-    <t>0x2bb4bacbb7cc6186454253dab673e22009a0b866</t>
-  </si>
-  <si>
-    <t>0x2cf4ecf6785a7193183758e8e97f12ee5d67dfcd</t>
-  </si>
-  <si>
-    <t>0x2dda95e0b2e63c8bf6f99fd396e1c85941c04e69</t>
-  </si>
-  <si>
-    <t>0x2f5c8d7259b48078c0b6c0a7cf6269e3817680e5</t>
-  </si>
-  <si>
-    <t>0x32ec2e6967687825123c5c0f30c18e2c47708df1</t>
-  </si>
-  <si>
-    <t>0x35e8312dfa25f478d85d88c10fde88824cacbced</t>
-  </si>
-  <si>
-    <t>0x36daecfc172fd44a165fb93be5569e72b09ceea2</t>
-  </si>
-  <si>
-    <t>0x47739ff19b02e13cd216c17b8f64ef09191d9ec8</t>
-  </si>
-  <si>
-    <t>0x4865a4d8e52e3754fc0e20ad0146660ad053fd44</t>
-  </si>
-  <si>
-    <t>0x48da10957081fca6947b369f67fe1bee1dc3010c</t>
-  </si>
-  <si>
-    <t>0x4a479d44678c68ee7f193610b53dec6cc514d643</t>
-  </si>
-  <si>
-    <t>0x4de97b5e186bc9313cb7c0eaed5fa8f5ec77aa8e</t>
-  </si>
-  <si>
-    <t>0x505766c3aef3ea43cf7e1bf9620e52607d45885e</t>
-  </si>
-  <si>
-    <t>0x57bfffd48366f78e787e167419c8c05cdb849ede</t>
-  </si>
-  <si>
-    <t>0x587d6669a2743a1d6094f150006f56f85b5aade3</t>
-  </si>
-  <si>
-    <t>0x59bf73063bb645f3df40d9b05a117be6344e1eda</t>
-  </si>
-  <si>
-    <t>0x5c9f77612069eabd4b06be53d67e3f16af2d8436</t>
-  </si>
-  <si>
-    <t>0x6236634c1e5267a7567b14f4aade9fb1026daacc</t>
-  </si>
-  <si>
-    <t>0x6329316475a98027e62246d25e4a5ed8d7f9fc51</t>
-  </si>
-  <si>
-    <t>0x645f0c9695f2b970e623ae29538fdb1a67bd6b6e</t>
-  </si>
-  <si>
-    <t>0x65d61179a248fa56235dd0691e0792582b5cb3f9</t>
-  </si>
-  <si>
-    <t>0x66322181534ff227904daf5ea692a2f2ba62d582</t>
-  </si>
-  <si>
-    <t>0x6774ff11d7c45052235d052033b4cfd7f8adfb80</t>
-  </si>
-  <si>
-    <t>0x6b609d9095d069c805650234ab67595b3a6ab934</t>
-  </si>
-  <si>
-    <t>0x75a17c63c2121447655955b55aaa1a413e750232</t>
-  </si>
-  <si>
-    <t>0x83dc8423170e95ee18b770bbdd6b3becb73c9c30</t>
-  </si>
-  <si>
-    <t>0x86015ce69e97da08ecc55c157bb8a2857bfbd1c4</t>
-  </si>
-  <si>
-    <t>0x8bdb442803275b21abb2555fea11468bf5d98256</t>
-  </si>
-  <si>
-    <t>0x919de246cb2973ec78d47bda8680a23098d60158</t>
-  </si>
-  <si>
-    <t>0x954791f9a0f0ff7841cffea32c556ac71168eff8</t>
-  </si>
-  <si>
-    <t>0x994e6d73b071bffdd7c07152912bf652fab89533</t>
-  </si>
-  <si>
-    <t>0x997e3adb550a85895f5becf54a2751e6df24edc8</t>
-  </si>
-  <si>
-    <t>0x99b001735036d937b4a11c17a9a44f86fbddf4d0</t>
-  </si>
-  <si>
-    <t>0x9c235ac2c33077a30593a3fd27a0087c687a80a3</t>
-  </si>
-  <si>
-    <t>0xa425afe3a64f560b309355c77428ceab5a9b5e80</t>
-  </si>
-  <si>
-    <t>0xaaf4281fd8142dc3263b3303b0a6f62d00b2d07e</t>
-  </si>
-  <si>
-    <t>0xab244f9aa7a8dd03e8261b2508438d301ac05a4f</t>
-  </si>
-  <si>
-    <t>0xb061021d6ec56942e6869eede86af3ca617dfd0c</t>
-  </si>
-  <si>
-    <t>0xb3b3fa00a534ab0c7437bc5e9f4f97f1f98b930d</t>
-  </si>
-  <si>
-    <t>0xb4c9ae223aa7e1763a5d88902f74be277df068d9</t>
-  </si>
-  <si>
-    <t>0xb548e488c27b7ebf4b9f29d4205da23b56d4928f</t>
-  </si>
-  <si>
-    <t>0xb7feef5cf872df05f7cec25a2ce82a14cedcc27a</t>
-  </si>
-  <si>
-    <t>0xb8ef6d30433b3c0a3ccb6a955132939aef857a72</t>
-  </si>
-  <si>
-    <t>0xc45865b235a7c6693b9db5fed46ea8a3022d9b07</t>
-  </si>
-  <si>
-    <t>0xc939a768bca271e0c69c2c530a8c20dc1cfb60be</t>
-  </si>
-  <si>
-    <t>0xcc9f2c74ea74c666dcd6271868e6d3db60573877</t>
-  </si>
-  <si>
-    <t>0xd079acf6491bbf8bbbbee6a5d73eaa0dcedec0c2</t>
-  </si>
-  <si>
-    <t>0xe687951e1b7049f4aea2d6598a20a6f2eada09cc</t>
-  </si>
-  <si>
-    <t>0xebb3593048373b1d117709ff3dc69b03d72ba081</t>
-  </si>
-  <si>
-    <t>0xf6268188a46f47551fcfe664f3665c25bf697f52</t>
-  </si>
-  <si>
-    <t>0x006b4425ba57148466c0c54af1c484348a14a8a4</t>
+    <t>0x7598c3543ef4f27f09c98aeb3753506a0290a0fc</t>
+  </si>
+  <si>
+    <t>0x4fc550cd2312ed67cb3938378c90c2a76fae0142</t>
+  </si>
+  <si>
+    <t>0xb5e7268539bbe78b8190ad61342dba7251551599</t>
+  </si>
+  <si>
+    <t>0x898bf39cd67658bd63577fb00a2a3571daecbc53</t>
+  </si>
+  <si>
+    <t>0xc8c6a31a4a806d3710a7b38b7b296d2fabccdba8</t>
+  </si>
+  <si>
+    <t>0x3dbdc81a6edc94c720b0b88fb65dbd7e395fdcf6</t>
+  </si>
+  <si>
+    <t>0xbd3696b01a487b012ba99628b06a1a7859f5ca23</t>
+  </si>
+  <si>
+    <t>0x69126f7fa0f53ef95c241b48cf3ac0dc88461bb8</t>
+  </si>
+  <si>
+    <t>0x32c08c8047d2d9114445ef72055c87173b5ca955</t>
+  </si>
+  <si>
+    <t>0x6e5ace49d0e051936fcbe63e192445c808fcd490</t>
+  </si>
+  <si>
+    <t>0xdb6f847849765ca3ecd34e4d90f8c58b80bf5443</t>
+  </si>
+  <si>
+    <t>0x3bb3354f82654dd609300e92c92cf2c7c1bf3171</t>
+  </si>
+  <si>
+    <t>0x656038e97cee7c095673f7b9fad695b323a6f098</t>
+  </si>
+  <si>
+    <t>0xe4d0c33807b4180fcbd3acff8ef0bf97cda7b9a5</t>
+  </si>
+  <si>
+    <t>0xd083713e4d9bc1e4c923795f9f6ce2a97646c116</t>
+  </si>
+  <si>
+    <t>0x28ca75ec687f08d7b606bce1d013b2fdf944df19</t>
+  </si>
+  <si>
+    <t>0x58ab239b029e80132f907f098285055fa0c6a774</t>
+  </si>
+  <si>
+    <t>0x318bf186c7681ed7efd57839e6415cd8a162713c</t>
+  </si>
+  <si>
+    <t>0xb11ee4ef5c2e2ac877211543f0ee073d307b3d51</t>
+  </si>
+  <si>
+    <t>0xeb86dfc14848b56955051cfd9d696bafde1d6027</t>
+  </si>
+  <si>
+    <t>0xe699d364ea2abb729f1f7232bd1063e182dcf78f</t>
+  </si>
+  <si>
+    <t>0xc3dc5b72cba5922b95ebc81606b2581e577feca0</t>
+  </si>
+  <si>
+    <t>0xb77feddb7e627a78140a2a32cac65a49ed1dba8e</t>
+  </si>
+  <si>
+    <t>0x960f401aed58668ef476ef02b2a2d43b83c261d8</t>
+  </si>
+  <si>
+    <t>0x0ba000163959726c90d41c804386d37718d5edc8</t>
+  </si>
+  <si>
+    <t>0xfcad2859f3e602d4cfb9aca35465a618f9009f7b</t>
+  </si>
+  <si>
+    <t>0x62f18c451af964197341d3c86d27e98c41bb8fcc</t>
+  </si>
+  <si>
+    <t>0x229bf16b2166db12c6e02104c7311dd3e6a601db</t>
+  </si>
+  <si>
+    <t>0xd72172f90d5436b9abb3fbcf818d7e05fa1fc189</t>
+  </si>
+  <si>
+    <t>0x27d7bfbed155767a9ac7d04cb200ed8f8430cf09</t>
+  </si>
+  <si>
+    <t>0x903643251af408a3c5269c836b9a2a4a1f04d1cf</t>
+  </si>
+  <si>
+    <t>0x7a8721a9d64c74da899424c1b52acbf58ddc9782</t>
+  </si>
+  <si>
+    <t>0x26ed62ba64c9d174298edb527506ae1df419cfae</t>
+  </si>
+  <si>
+    <t>0xc99f359f73626e475ee86caab459a4b34ae93fea</t>
+  </si>
+  <si>
+    <t>0xed023b117953fcfaa92150d3ebe3e987d19563ce</t>
+  </si>
+  <si>
+    <t>0xf7ed56c1ac4d038e367a987258b86fc883b960a1</t>
+  </si>
+  <si>
+    <t>0x10cc060f6f9b2e5dcdb23f1361e4b368a7daec73</t>
+  </si>
+  <si>
+    <t>0x4db129c33d1a56333deeafbae6ae5c8a1598b926</t>
+  </si>
+  <si>
+    <t>0x37f387fe48c9569500b514a1c7e1f6b04be8d421</t>
+  </si>
+  <si>
+    <t>0x459ec81abaaa2f95ee0a1ad35df62ae4bdf3c3d2</t>
+  </si>
+  <si>
+    <t>0xe1015a79a7d488f8fecf073b187d38c6f1a77368</t>
+  </si>
+  <si>
+    <t>0x0a61e886822f46b4ca9c765c9b984a25a5dc4b9a</t>
   </si>
 </sst>
 </file>
@@ -254,8 +191,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -558,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -572,318 +512,213 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
